--- a/meta/en/10-1-1.xlsx
+++ b/meta/en/10-1-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="Workbook________" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
@@ -103,21 +103,6 @@
     <t>10.1.1. Growth rate of household expenditure or per capita income among the poorest 40 per cent of the population and the population in general</t>
   </si>
   <si>
-    <t>The National Statistical Committee of the Kyrgyz Republic (Household Statistics Division)</t>
-  </si>
-  <si>
-    <t>Y. I. Kalymbetova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y.Kalymbetova@stat.kg </t>
-  </si>
-  <si>
-    <t>(312) 66 41 64</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>The growth rate in the welfare aggregate of bottom 40% is computed as the annualized average growth rate in per capita real consumption or income of the bottom 40% of the income distribution in a country from household surveys over a roughly 5-year period. The national average growth rate in the welfare
 aggregate is computed as the annualized average growth rate in per capita real consumption or income of the total population in a country from household surveys over a roughly 5-year period.</t>
   </si>
@@ -149,18 +134,41 @@
   <si>
     <t>SDG National Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io 
 Data are published in statistical compendiums “Employment and Unemployment”, “Women and Men in the Kyrgyz Republic”, “Kyrgyzstan in Figures”</t>
+  </si>
+  <si>
+    <t>National Statistical Committee of the Kyrgyz Republic (Department of Household Statistics)</t>
+  </si>
+  <si>
+    <t>Kalymbetova Yryskan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yryskan.kalymbetova@gmail.com </t>
+  </si>
+  <si>
+    <t>(0312) 32 46 55</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,26 +235,30 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -558,7 +570,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +590,7 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -609,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -617,7 +629,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -625,7 +637,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -633,7 +645,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -641,7 +653,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -655,7 +667,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -663,7 +675,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -671,7 +683,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -685,7 +697,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -693,7 +705,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -707,7 +719,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -715,7 +727,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -741,7 +753,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -749,7 +761,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -757,7 +769,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
